--- a/TestingPlan.xlsx
+++ b/TestingPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rocketry\Payload Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B480E-D51B-4970-9D74-FE2EC8676B7E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31515995-4121-4B12-9A9A-9557CE37FAAA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{D0F90CA3-CF18-4346-ACD5-E4FF1EBB8BD6}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{D0F90CA3-CF18-4346-ACD5-E4FF1EBB8BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Subsystem</t>
   </si>
@@ -135,7 +135,19 @@
     <t>Battery Life testing</t>
   </si>
   <si>
-    <t>Fully charge all batteries. Turn on the transponder and run until batteries die. Turn on the cubesat and run until batteries die. Turn on cubesat and enable all systems, then run until batteries die</t>
+    <t>Fully charge all batteries. Turn on the transponder and run until batteries die. Turn on the cubesat and run until batteries die. Recharge, turn on cubesat and enable all systems, then run until batteries die</t>
+  </si>
+  <si>
+    <t>Full system</t>
+  </si>
+  <si>
+    <t>Full Integration Test</t>
+  </si>
+  <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t>Full integration and deployment test. Simulate Launch</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94744BB-3AA9-4EB2-B75C-E95238FD34A5}">
-  <dimension ref="D2:F19"/>
+  <dimension ref="D2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +515,7 @@
     <col min="6" max="6" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -513,8 +525,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>2</v>
       </c>
@@ -525,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -536,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -558,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -569,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>17</v>
       </c>
@@ -580,7 +595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -591,7 +606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>23</v>
       </c>
@@ -602,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>26</v>
       </c>
@@ -613,7 +628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -624,7 +639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -635,7 +650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>34</v>
       </c>
@@ -646,8 +661,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
